--- a/public/template/试题批量导入模板.xlsx
+++ b/public/template/试题批量导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markjune/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markjune/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75237FA2-FBAC-6644-9D12-83BC58B99F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A46CD6-99C9-624C-BC75-A771E4839D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
   </bookViews>
@@ -131,10 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="000000"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +158,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -214,27 +218,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,19 +551,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7CF1DF-E8C8-A642-A3A6-9E8430F6FA50}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="15" width="20.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="15" width="20.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="150" customHeight="1">
+    <row r="1" spans="1:15" ht="200" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -582,7 +583,7 @@
       <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -629,45 +630,39 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>120</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>200</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="D5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/public/template/试题批量导入模板.xlsx
+++ b/public/template/试题批量导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markjune/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tengteng/work/meedu/backend-v2/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A46CD6-99C9-624C-BC75-A771E4839D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA99197-0DF0-B143-8FD9-50A378BAD767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -669,6 +669,14 @@
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{14F24271-C84F-2046-9E15-EE8777B7CCD6}">
+      <formula1>"单选题,多选题,填空题,判断题,问答题"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{6C74C0F1-3298-1E4F-8C66-90696BB1C53B}">
+      <formula1>"简单,中等,难,特别难"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/public/template/试题批量导入模板.xlsx
+++ b/public/template/试题批量导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markjune/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A46CD6-99C9-624C-BC75-A771E4839D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645585CB-0C7A-ED41-81C2-3524CF664CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
   </bookViews>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单选题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小学数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,14 +113,17 @@
   </si>
   <si>
     <t>1.「试题分类」填写试题所属分类名（需提前在试题库创建该分类名，有二级分类的可直接填写二级分类名）。
-2.「试题类型」填写  "单选题"  "多选题"  "填空题"  "判断题"  "问答题"（批量导入不支持题帽题）。
-3.「试题难度」填写  "简单"  "中等"  "难"  "特别难"。
+2.「试题类型」选择  "单选题"  "多选题"  "填空题"  "判断题"  "问答题"（批量导入不支持题帽题）。
+3.「试题难度」选择  "简单"  "中等"  "难"  "特别难"。
 4.「答案-多选题」填写正确选项对应数字，如答案是“ABC”，表格答案填写“1,2,3”（用英文逗号隔开）。
 5.「答案-填空题」如空一答案是“are”，空二答案是“am”，表格答案填写“are,am”（用英文逗号隔开）。
 6.「答案-判断题」填写“1”代表正确，“0”代表错误。
 7.「解析」可不填，是对于题目答案的解析。
 8.「选项」单选题，多选题需填写，选项1234对应选项ABCD。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选题</t>
   </si>
 </sst>
 </file>
@@ -554,7 +553,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -565,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="200" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -631,22 +630,22 @@
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -669,6 +668,14 @@
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576 C5 C4 C3" xr:uid="{E0FA5A45-9904-8B4B-AE53-CB93729302D4}">
+      <formula1>"简单,中等,难,特别难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{ABB2EA1C-F820-4840-A866-555820276671}">
+      <formula1>"单选题,多选题,填空题,判断题,问答题"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/public/template/试题批量导入模板.xlsx
+++ b/public/template/试题批量导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tengteng/work/meedu/backend-v2/public/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markjune/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA99197-0DF0-B143-8FD9-50A378BAD767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645585CB-0C7A-ED41-81C2-3524CF664CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单选题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小学数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,14 +113,17 @@
   </si>
   <si>
     <t>1.「试题分类」填写试题所属分类名（需提前在试题库创建该分类名，有二级分类的可直接填写二级分类名）。
-2.「试题类型」填写  "单选题"  "多选题"  "填空题"  "判断题"  "问答题"（批量导入不支持题帽题）。
-3.「试题难度」填写  "简单"  "中等"  "难"  "特别难"。
+2.「试题类型」选择  "单选题"  "多选题"  "填空题"  "判断题"  "问答题"（批量导入不支持题帽题）。
+3.「试题难度」选择  "简单"  "中等"  "难"  "特别难"。
 4.「答案-多选题」填写正确选项对应数字，如答案是“ABC”，表格答案填写“1,2,3”（用英文逗号隔开）。
 5.「答案-填空题」如空一答案是“are”，空二答案是“am”，表格答案填写“are,am”（用英文逗号隔开）。
 6.「答案-判断题」填写“1”代表正确，“0”代表错误。
 7.「解析」可不填，是对于题目答案的解析。
 8.「选项」单选题，多选题需填写，选项1234对应选项ABCD。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选题</t>
   </si>
 </sst>
 </file>
@@ -565,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="200" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -631,22 +630,22 @@
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -670,11 +669,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{14F24271-C84F-2046-9E15-EE8777B7CCD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576 C5 C4 C3" xr:uid="{E0FA5A45-9904-8B4B-AE53-CB93729302D4}">
+      <formula1>"简单,中等,难,特别难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{ABB2EA1C-F820-4840-A866-555820276671}">
       <formula1>"单选题,多选题,填空题,判断题,问答题"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{6C74C0F1-3298-1E4F-8C66-90696BB1C53B}">
-      <formula1>"简单,中等,难,特别难"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/试题批量导入模板.xlsx
+++ b/public/template/试题批量导入模板.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markjune/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645585CB-0C7A-ED41-81C2-3524CF664CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74681992-9FA0-D047-9860-858DF3C6E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,18 +112,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>单选题</t>
+  </si>
+  <si>
     <t>1.「试题分类」填写试题所属分类名（需提前在试题库创建该分类名，有二级分类的可直接填写二级分类名）。
 2.「试题类型」选择  "单选题"  "多选题"  "填空题"  "判断题"  "问答题"（批量导入不支持题帽题）。
 3.「试题难度」选择  "简单"  "中等"  "难"  "特别难"。
-4.「答案-多选题」填写正确选项对应数字，如答案是“ABC”，表格答案填写“1,2,3”（用英文逗号隔开）。
-5.「答案-填空题」如空一答案是“are”，空二答案是“am”，表格答案填写“are,am”（用英文逗号隔开）。
-6.「答案-判断题」填写“1”代表正确，“0”代表错误。
-7.「解析」可不填，是对于题目答案的解析。
+4.「答案-多选题」填写正确选项对应数字，如答案是“ABC”，「答案」填写“1,2,3”（用英文逗号隔开）。
+5.「答案-填空题」支持多空填空题，「答案」可填写“空一答案,空二答案”(用英文逗号隔开)，「分值」可填写“5,5”(用英文逗号隔开)。
+6.「答案-判断题」「答案」填写“1”代表正确，“0”代表错误。
+7.「解析」项选填，是对于题目答案的解析。
 8.「选项」单选题，多选题需填写，选项1234对应选项ABCD。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选题</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -564,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="200" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -633,7 +633,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/public/template/试题批量导入模板.xlsx
+++ b/public/template/试题批量导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markjune/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markjune/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74681992-9FA0-D047-9860-858DF3C6E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB34CA6-E02D-8847-AA74-85E07A9CEED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>试题类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,15 +104,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100+100=（）</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选题</t>
   </si>
   <si>
     <t>1.「试题分类」填写试题所属分类名（需提前在试题库创建该分类名，有二级分类的可直接填写二级分类名）。
@@ -123,6 +116,34 @@
 6.「答案-判断题」「答案」填写“1”代表正确，“0”代表错误。
 7.「解析」项选填，是对于题目答案的解析。
 8.「选项」单选题，多选题需填写，选项1234对应选项ABCD。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +256,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,18 +580,20 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="K8" sqref="A4:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="15" width="20.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="3" width="20.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" style="7" customWidth="1"/>
+    <col min="5" max="15" width="20.83203125" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="200" customHeight="1">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="200" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -628,39 +657,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" ht="19">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>120</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2">
-        <v>200</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1000</v>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +695,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576 C5 C4 C3" xr:uid="{E0FA5A45-9904-8B4B-AE53-CB93729302D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{E0FA5A45-9904-8B4B-AE53-CB93729302D4}">
       <formula1>"简单,中等,难,特别难"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{ABB2EA1C-F820-4840-A866-555820276671}">
